--- a/inst/extdata/structure_tests/preload_01.xlsx
+++ b/inst/extdata/structure_tests/preload_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/structure_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A5E920-9DF0-6146-A95E-E27E806EC161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCDF887-B776-3946-B066-DF95A6453619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1080" windowWidth="31520" windowHeight="18700" activeTab="2" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="780" yWindow="1080" windowWidth="31520" windowHeight="18700" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -39,17 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>This is an example of input data that should fail tests</t>
-  </si>
-  <si>
-    <t>Specific issue: study_IDs in the studies table are not unique</t>
-  </si>
-  <si>
     <t>study_ID</t>
   </si>
   <si>
@@ -144,6 +138,9 @@
   </si>
   <si>
     <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>This is an example of input data that should pass tests</t>
   </si>
 </sst>
 </file>
@@ -527,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F458F03-62A4-D443-9D68-A11CADF671CD}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,12 +539,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -570,42 +562,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>2024</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF84CB1-9532-2C43-A7F8-683871878F9F}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -631,51 +623,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" t="s">
         <v>22</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -684,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -716,24 +708,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>1</v>
